--- a/data_analysis/machine_methods/OUTPUTS/csvs/condition_C_D_reduced.xlsx
+++ b/data_analysis/machine_methods/OUTPUTS/csvs/condition_C_D_reduced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnamd\Documents\GitHub\kinova_share\data_analysis\machine_methods\OUTPUTS\csvs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A518B588-D0C6-49E9-8DCC-9C841B606C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD92D6F6-05C3-49BE-8683-6C487A5ADECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="16440" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="14">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>knn</t>
+  </si>
+  <si>
+    <t>mlp</t>
+  </si>
+  <si>
+    <t>nb</t>
   </si>
 </sst>
 </file>
@@ -431,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -497,7 +503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -527,7 +533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -557,15 +563,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -573,16 +579,29 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <f>AVERAGEIF(C:C,G5,D:D)</f>
+        <v>0.82692307692307687</v>
+      </c>
+      <c r="I5">
+        <v>0.5</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -590,8 +609,21 @@
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6">
+        <f>AVERAGEIF(C:C,G6,D:D)</f>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="I6">
+        <v>0.5</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -599,7 +631,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -608,165 +640,165 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10">
-        <v>0.5</v>
-      </c>
-      <c r="E10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -778,12 +810,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -795,32 +827,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -829,49 +861,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -880,15 +912,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -897,15 +929,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -914,15 +946,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -931,32 +963,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -965,15 +997,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D29">
         <v>0.5</v>
@@ -982,63 +1014,63 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D30">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
       </c>
       <c r="D32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
@@ -1050,12 +1082,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -1067,15 +1099,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1084,15 +1116,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1101,15 +1133,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1118,49 +1150,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1169,49 +1201,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D42">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D43">
         <v>0.5</v>
@@ -1220,15 +1252,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1237,100 +1269,100 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
         <v>9</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1339,15 +1371,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D51">
         <v>0.5</v>
@@ -1356,15 +1388,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D52">
         <v>0.5</v>
@@ -1373,15 +1405,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53">
         <v>0.5</v>
@@ -1390,15 +1422,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D54">
         <v>0.5</v>
@@ -1407,49 +1439,49 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -1458,15 +1490,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -1475,15 +1507,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -1492,15 +1524,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -1509,15 +1541,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -1526,12 +1558,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
         <v>9</v>
@@ -1543,12 +1575,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
         <v>10</v>
@@ -1560,49 +1592,49 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
       </c>
       <c r="D64">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -1611,100 +1643,100 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -1713,15 +1745,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -1730,32 +1762,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D74">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E74">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -1764,15 +1796,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -1781,12 +1813,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C77" t="s">
         <v>9</v>
@@ -1798,12 +1830,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C78" t="s">
         <v>10</v>
@@ -1815,20 +1847,904 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79">
+        <v>19</v>
+      </c>
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>19</v>
+      </c>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>19</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>20</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>20</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83">
+        <v>0.5</v>
+      </c>
+      <c r="E83">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>20</v>
+      </c>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84">
+        <v>0.5</v>
+      </c>
+      <c r="E84">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>20</v>
+      </c>
+      <c r="C85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85">
+        <v>0.5</v>
+      </c>
+      <c r="E85">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>20</v>
+      </c>
+      <c r="C86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>22</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87">
+        <v>0.5</v>
+      </c>
+      <c r="E87">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>22</v>
+      </c>
+      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88">
+        <v>0.5</v>
+      </c>
+      <c r="E88">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>22</v>
+      </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>22</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90">
+        <v>0.5</v>
+      </c>
+      <c r="E90">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>22</v>
+      </c>
+      <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91">
+        <v>0.5</v>
+      </c>
+      <c r="E91">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>23</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>23</v>
+      </c>
+      <c r="C93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>23</v>
+      </c>
+      <c r="C94" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>23</v>
+      </c>
+      <c r="C95" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>23</v>
+      </c>
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>24</v>
+      </c>
+      <c r="C97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>24</v>
+      </c>
+      <c r="C98" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>24</v>
+      </c>
+      <c r="C99" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>24</v>
+      </c>
+      <c r="C100" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>24</v>
+      </c>
+      <c r="C101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>25</v>
+      </c>
+      <c r="C102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102">
+        <v>0.5</v>
+      </c>
+      <c r="E102">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>25</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103">
+        <v>0.5</v>
+      </c>
+      <c r="E103">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>25</v>
+      </c>
+      <c r="C104" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104">
+        <v>0.5</v>
+      </c>
+      <c r="E104">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>25</v>
+      </c>
+      <c r="C105" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105">
+        <v>0.5</v>
+      </c>
+      <c r="E105">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>25</v>
+      </c>
+      <c r="C106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106">
+        <v>0.5</v>
+      </c>
+      <c r="E106">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>26</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>26</v>
+      </c>
+      <c r="C108" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>26</v>
+      </c>
+      <c r="C109" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>26</v>
+      </c>
+      <c r="C110" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>26</v>
+      </c>
+      <c r="C111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>27</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>27</v>
+      </c>
+      <c r="C113" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>27</v>
+      </c>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>27</v>
+      </c>
+      <c r="C115" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115">
+        <v>0.5</v>
+      </c>
+      <c r="E115">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>27</v>
+      </c>
+      <c r="C116" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>28</v>
+      </c>
+      <c r="C117" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>28</v>
+      </c>
+      <c r="C118" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>28</v>
+      </c>
+      <c r="C119" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>28</v>
+      </c>
+      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>28</v>
+      </c>
+      <c r="C121" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>29</v>
+      </c>
+      <c r="C122" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122">
+        <v>0.5</v>
+      </c>
+      <c r="E122">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>29</v>
+      </c>
+      <c r="C123" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>29</v>
+      </c>
+      <c r="C124" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>29</v>
+      </c>
+      <c r="C125" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>29</v>
+      </c>
+      <c r="C126" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126">
+        <v>0.5</v>
+      </c>
+      <c r="E126">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
         <v>30</v>
       </c>
-      <c r="C79" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79">
+      <c r="C127" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>30</v>
+      </c>
+      <c r="C128" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>30</v>
+      </c>
+      <c r="C129" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>30</v>
+      </c>
+      <c r="C130" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>30</v>
+      </c>
+      <c r="C131" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
         <v>0</v>
       </c>
     </row>
